--- a/sample/共通フッター.xlsx
+++ b/sample/共通フッター.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>サンプルフッター</t>
   </si>
@@ -35,18 +35,45 @@
     <t>変動項目</t>
   </si>
   <si>
+    <t>ラベル</t>
+  </si>
+  <si>
     <t>置換変数</t>
   </si>
   <si>
+    <t>型</t>
+  </si>
+  <si>
     <t>表示条件</t>
   </si>
   <si>
     <t>【お問い合わせ】</t>
   </si>
   <si>
+    <t>t.pia.jp</t>
+  </si>
+  <si>
+    <t>ヘルプドメイン</t>
+  </si>
+  <si>
+    <t>helpDomain</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>こちらのメールアドレスは送信専用です。</t>
   </si>
   <si>
+    <t>pia.jp</t>
+  </si>
+  <si>
+    <t>サービスドメイン</t>
+  </si>
+  <si>
+    <t>serviceDomain</t>
+  </si>
+  <si>
     <t>直接返信されても返答できませんのであらかじめご了承ください。</t>
   </si>
   <si>
@@ -56,12 +83,6 @@
     <t>チケットぴあ　ヘルプ http://t.pia.jp/help/index.html</t>
   </si>
   <si>
-    <t>t.pia.jp</t>
-  </si>
-  <si>
-    <t>helpDomain</t>
-  </si>
-  <si>
     <t>今後ともチケットぴあをご愛顧いただきますようお願いいたします。</t>
   </si>
   <si>
@@ -69,12 +90,6 @@
   </si>
   <si>
     <t>チケットぴあ　http://pia.jp/t</t>
-  </si>
-  <si>
-    <t>pia.jp</t>
-  </si>
-  <si>
-    <t>serviceDomain</t>
   </si>
   <si>
     <t xml:space="preserve">--------------------------------------- </t>
@@ -85,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -97,15 +112,27 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,14 +155,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,29 +203,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -180,7 +220,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,10 +576,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -542,21 +588,24 @@
     <col min="3" max="3" width="112.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="6" max="6" width="66" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
-    <col min="9" max="9" width="22.7916666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="22.7916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:8">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -569,101 +618,122 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sample/共通フッター.xlsx
+++ b/sample/共通フッター.xlsx
@@ -100,8 +100,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -173,9 +173,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,25 +203,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -579,7 +579,7 @@
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -601,6 +601,10 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>

--- a/sample/共通フッター.xlsx
+++ b/sample/共通フッター.xlsx
@@ -17,6 +17,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
+    <t>置換変数</t>
+  </si>
+  <si>
     <t>サンプルフッター</t>
   </si>
   <si>
@@ -36,9 +39,6 @@
   </si>
   <si>
     <t>ラベル</t>
-  </si>
-  <si>
-    <t>置換変数</t>
   </si>
   <si>
     <t>型</t>
@@ -100,8 +100,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -144,9 +144,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -159,7 +157,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -173,9 +173,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,48 +203,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,10 +582,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:L13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -591,50 +597,51 @@
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="6.375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="3.625" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="22.7916666666667" customWidth="1"/>
+    <col min="11" max="11" width="7.625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7916666666667" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="8:8">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -642,7 +649,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E5">
@@ -665,7 +672,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E6">
@@ -688,7 +695,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -696,7 +703,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -704,7 +711,7 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -712,7 +719,7 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -720,7 +727,7 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -728,7 +735,7 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -736,7 +743,7 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
